--- a/medicine/Enfance/Myriam_Chirousse/Myriam_Chirousse.xlsx
+++ b/medicine/Enfance/Myriam_Chirousse/Myriam_Chirousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myriam Chirousse, née le 12 avril 1973 (51 ans) à Cagnes-sur-Mer, est une traductrice et écrivaine française.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Myriam Chirousse naît en 1973 à Cagnes-sur-Mer[1]. Elle suit des études de lettres et de philosophie à Nice, puis à Paris. Elle écrit, en parallèle, ses premiers contes pour enfants et des nouvelles. En 2000, elle quitte la France pour l'Espagne où elle travaille comme professeure de français et traductrice. 
-Son premier roman, Miel et vin, paraît en 2009, et est finaliste l'année suivante du Prix des libraires[2]. De retour en France, elle se consacre à la traduction et à l'écriture. Elle a écrit Le Cantique des Elfes (2011, roman jeunesse), La Paupière du Jour (2013), Le Sanglier (2016)[3],[4] et Une ombre au tableau (2018)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Myriam Chirousse naît en 1973 à Cagnes-sur-Mer. Elle suit des études de lettres et de philosophie à Nice, puis à Paris. Elle écrit, en parallèle, ses premiers contes pour enfants et des nouvelles. En 2000, elle quitte la France pour l'Espagne où elle travaille comme professeure de français et traductrice. 
+Son premier roman, Miel et vin, paraît en 2009, et est finaliste l'année suivante du Prix des libraires. De retour en France, elle se consacre à la traduction et à l'écriture. Elle a écrit Le Cantique des Elfes (2011, roman jeunesse), La Paupière du Jour (2013), Le Sanglier (2016), et Une ombre au tableau (2018).
 Son roman L'Homme au perroquet vert paraît en 2024.
 </t>
         </is>
@@ -546,15 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature
-Miel et vin, Paris, Éditions Buchet/Chastel, 2009, 541 p.  (ISBN 978-2-283-02367-9)
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Miel et vin, Paris, Éditions Buchet/Chastel, 2009, 541 p.  (ISBN 978-2-283-02367-9)
 La Paupière du jour, Paris, Éditions Buchet/Chastel, 2013, 504 p.  (ISBN 978-2-283-02629-8)
-Le Sanglier[3], Paris, Éditions Buchet/Chastel, 2016, 160 p.  (ISBN 978-2-283-02917-6)
+Le Sanglier, Paris, Éditions Buchet/Chastel, 2016, 160 p.  (ISBN 978-2-283-02917-6)
 Une ombre au tableau, Paris, Éditions Buchet/Chastel, 2018, 190 p.  (ISBN 978-2-283-03117-9).
-L'Homme au perroquet vert, Buchet-Chastel, 2024  (ISBN 9782283033135)
-Jeunesse
-La Légende du pompier à plumes, ill. de Peggy Adam, Jouac, France, Éditions PEMF, coll. « Côté pile côté face », 2003, 20 p.  (ISBN 2-84526-469-0)
-Le Cantique des elfes, Paris, Éditions Thierry Magnier, 2011, 189 p.  (ISBN 978-2-36474-013-6)</t>
+L'Homme au perroquet vert, Buchet-Chastel, 2024  (ISBN 9782283033135)</t>
         </is>
       </c>
     </row>
@@ -579,10 +595,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Légende du pompier à plumes, ill. de Peggy Adam, Jouac, France, Éditions PEMF, coll. « Côté pile côté face », 2003, 20 p.  (ISBN 2-84526-469-0)
+Le Cantique des elfes, Paris, Éditions Thierry Magnier, 2011, 189 p.  (ISBN 978-2-36474-013-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Myriam_Chirousse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myriam_Chirousse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Traductions depuis l'espagnol</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 Le roi transparent de Rosa Montero, éditions Métailié, 2008.
@@ -599,34 +654,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Myriam_Chirousse</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Myriam_Chirousse</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix Pierre-François Caillé de la traduction 2008[5] pour Le Roi transparent de Rosa Montero
-Finaliste Prix des libraires 2010[2] pour Miel et vin.</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Pierre-François Caillé de la traduction 2008 pour Le Roi transparent de Rosa Montero
+Finaliste Prix des libraires 2010 pour Miel et vin.</t>
         </is>
       </c>
     </row>
